--- a/src/test/resources/testData.xlsx
+++ b/src/test/resources/testData.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chikk\eclipse-workspace\ProjectTA\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{000F96C5-4374-4877-8385-201C300F61AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13721542-A6CB-436C-A70D-2DD95E8AA6F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19310" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="MMT" sheetId="1" r:id="rId1"/>
+    <sheet name="Cricbuzz" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,52 +26,90 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
-  <si>
-    <t>Browser</t>
-  </si>
-  <si>
-    <t>Chrome</t>
-  </si>
-  <si>
-    <t>MsEdge</t>
-  </si>
-  <si>
-    <t>FireFox</t>
-  </si>
-  <si>
-    <t>Sarai</t>
-  </si>
-  <si>
-    <t>url1</t>
-  </si>
-  <si>
-    <t>url2</t>
-  </si>
-  <si>
-    <t>url3</t>
-  </si>
-  <si>
-    <t>url4</t>
-  </si>
-  <si>
-    <t>url</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="17">
   <si>
     <t>S.No.</t>
+  </si>
+  <si>
+    <t>Hyderabad</t>
+  </si>
+  <si>
+    <t>From</t>
+  </si>
+  <si>
+    <t>To</t>
+  </si>
+  <si>
+    <t>Bengaluru</t>
+  </si>
+  <si>
+    <t>Mumbai</t>
+  </si>
+  <si>
+    <t>Delhi</t>
+  </si>
+  <si>
+    <t>Kolkata</t>
+  </si>
+  <si>
+    <t>S.No</t>
+  </si>
+  <si>
+    <t>Inngings</t>
+  </si>
+  <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>https://www.cricbuzz.com/live-cricket-scorecard/106673/rsa-vs-aus-final-icc-world-test-championship-final-2025</t>
+  </si>
+  <si>
+    <t>innings_1</t>
+  </si>
+  <si>
+    <t>innings_2</t>
+  </si>
+  <si>
+    <t>innings_3</t>
+  </si>
+  <si>
+    <t>innings_4</t>
+  </si>
+  <si>
+    <t>https://www.cricbuzz.com/live-cricket-scorecard/118586/sl-vs-ban-1st-test-bangladesh-tour-of-sri-lanka-2025</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF2A00FF"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -90,13 +129,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -377,21 +420,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
@@ -402,7 +448,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -410,10 +456,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -421,10 +467,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
@@ -432,13 +478,127 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C282A8C7-72FA-4F55-AB0F-5A19CC00EB61}">
+  <dimension ref="A1:C9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="3" width="110" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5">
         <v>4</v>
       </c>
-      <c r="C5" t="s">
-        <v>8</v>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{85A05E85-5E2A-494E-A28E-F492F38A77FC}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{4BCACB2E-EC2A-4EE7-82EE-D2CCAD1B42E8}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{51F8256F-E26A-4635-803B-119B18FDCF4C}"/>
+    <hyperlink ref="C5" r:id="rId4" xr:uid="{5E26B10C-ED3B-4187-9252-3F07BA792D39}"/>
+    <hyperlink ref="C6" r:id="rId5" xr:uid="{1D6538F4-B9FC-44B5-87DD-DDDFFB3395A9}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/src/test/resources/testData.xlsx
+++ b/src/test/resources/testData.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chikk\eclipse-workspace\ProjectTA\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13721542-A6CB-436C-A70D-2DD95E8AA6F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B31454D6-C1C0-42BA-B99A-A84D5EC54E2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19310" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MMT" sheetId="1" r:id="rId1"/>
     <sheet name="Cricbuzz" sheetId="2" r:id="rId2"/>
+    <sheet name="SetUp" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="23">
   <si>
     <t>S.No.</t>
   </si>
@@ -77,6 +78,24 @@
   </si>
   <si>
     <t>https://www.cricbuzz.com/live-cricket-scorecard/118586/sl-vs-ban-1st-test-bangladesh-tour-of-sri-lanka-2025</t>
+  </si>
+  <si>
+    <t>Browser</t>
+  </si>
+  <si>
+    <t>RunMode</t>
+  </si>
+  <si>
+    <t>chrome</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>firefox</t>
+  </si>
+  <si>
+    <t>edge</t>
   </si>
 </sst>
 </file>
@@ -424,12 +443,12 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -440,7 +459,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -451,7 +470,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -462,7 +481,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -473,7 +492,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -494,16 +513,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C282A8C7-72FA-4F55-AB0F-5A19CC00EB61}">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="110" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -514,7 +533,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -525,7 +544,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -536,7 +555,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -547,7 +566,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -558,7 +577,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>12</v>
       </c>
@@ -566,7 +585,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>13</v>
       </c>
@@ -574,7 +593,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>14</v>
       </c>
@@ -582,7 +601,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>15</v>
       </c>
@@ -601,4 +620,63 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C806FF9-F8C2-4653-B745-8788345C2CCF}">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/test/resources/testData.xlsx
+++ b/src/test/resources/testData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chikk\eclipse-workspace\ProjectTA\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B31454D6-C1C0-42BA-B99A-A84D5EC54E2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95EECFBB-A566-498A-AC28-B8F8A99DFD95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19310" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MMT" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="33">
   <si>
     <t>S.No.</t>
   </si>
@@ -96,6 +96,36 @@
   </si>
   <si>
     <t>edge</t>
+  </si>
+  <si>
+    <t>Car Brand</t>
+  </si>
+  <si>
+    <t>BMW</t>
+  </si>
+  <si>
+    <t>Tata</t>
+  </si>
+  <si>
+    <t>Toyota</t>
+  </si>
+  <si>
+    <t>Toyota Cars</t>
+  </si>
+  <si>
+    <t>BMW Cars</t>
+  </si>
+  <si>
+    <t>Tata Cars</t>
+  </si>
+  <si>
+    <t>Car Title</t>
+  </si>
+  <si>
+    <t>Mahindra</t>
+  </si>
+  <si>
+    <t>Mahindra Cars</t>
   </si>
 </sst>
 </file>
@@ -443,12 +473,12 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -459,7 +489,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -470,7 +500,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -481,7 +511,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -492,7 +522,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -517,12 +547,12 @@
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="3" max="3" width="110" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -533,7 +563,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -544,7 +574,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -555,7 +585,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -566,7 +596,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -577,7 +607,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
         <v>12</v>
       </c>
@@ -585,7 +615,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
         <v>13</v>
       </c>
@@ -593,7 +623,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
         <v>14</v>
       </c>
@@ -601,7 +631,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
         <v>15</v>
       </c>
@@ -624,15 +654,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C806FF9-F8C2-4653-B745-8788345C2CCF}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="5" max="5" width="13.1796875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -642,8 +675,14 @@
       <c r="C1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -653,8 +692,14 @@
       <c r="C2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -664,8 +709,14 @@
       <c r="C3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -674,6 +725,46 @@
       </c>
       <c r="C4" t="s">
         <v>20</v>
+      </c>
+      <c r="D4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
